--- a/sum.xlsx
+++ b/sum.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da9cf2e5b4e3884c/Pictures/Camera Roll/Documents/UiPath/FileFolder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Pictures\Camera Roll\Documents\UiPath\FileFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_9DCA3C3FE344BD70F01DCCDEF75C0F1F2CAEA9C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5933075D-75AD-486F-ACED-E040ECD28BB5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,6 +85,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,7 +353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/sum.xlsx
+++ b/sum.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Pictures\Camera Roll\Documents\UiPath\FileFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da9cf2e5b4e3884c/Pictures/Camera Roll/Documents/UiPath/FileFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_BD43BC2712DDB0D3B04CDA171C5DCF05391BF223" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65D197D0-315C-4471-A1A1-283792CCDE1E}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,10 +86,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,7 +350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
